--- a/data_quarter/zb/工业/主要工业产品的销售与库存/照相机.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/照相机.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,21 @@
           <t>照相机销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>照相机产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>照相机销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年第一季度</t>
+          <t>2000年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,45 +481,63 @@
       <c r="E2" t="n">
         <v>1127.5</v>
       </c>
+      <c r="F2" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1127.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年第三季度</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>12.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4417</v>
+        <v>2738.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.099999999999994</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年第二季度</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>-1.8</v>
+        <v>12.7</v>
       </c>
       <c r="E4" t="n">
-        <v>2738.5</v>
+        <v>4417</v>
+      </c>
+      <c r="F4" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1678.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年第四季度</t>
+          <t>2000年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,11 +550,17 @@
       <c r="E5" t="n">
         <v>5503.6</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1086.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年第一季度</t>
+          <t>2001年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -539,45 +573,63 @@
       <c r="E6" t="n">
         <v>1333.9</v>
       </c>
+      <c r="F6" t="n">
+        <v>99</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1333.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年第三季度</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>18.7</v>
+        <v>87.7</v>
       </c>
       <c r="E7" t="n">
-        <v>4077.4</v>
+        <v>2636.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1302.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年第二季度</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>87.7</v>
+        <v>18.7</v>
       </c>
       <c r="E8" t="n">
-        <v>2636.4</v>
+        <v>4077.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年第四季度</t>
+          <t>2001年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,11 +642,17 @@
       <c r="E9" t="n">
         <v>5393.7</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1316.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2002年第一季度</t>
+          <t>2002年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -607,11 +665,17 @@
       <c r="E10" t="n">
         <v>894.8</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>894.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年第三季度</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -619,16 +683,22 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>16.1</v>
+        <v>9.5</v>
       </c>
       <c r="E11" t="n">
-        <v>3341.9</v>
+        <v>2087.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1192.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年第二季度</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -636,16 +706,22 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>9.5</v>
+        <v>16.1</v>
       </c>
       <c r="E12" t="n">
-        <v>2087.5</v>
+        <v>3341.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1254.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2002年第四季度</t>
+          <t>2002年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -658,11 +734,17 @@
       <c r="E13" t="n">
         <v>4784.4</v>
       </c>
+      <c r="F13" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1442.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2003年第一季度</t>
+          <t>2003年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -677,49 +759,67 @@
       <c r="E14" t="n">
         <v>1064.4</v>
       </c>
+      <c r="F14" t="n">
+        <v>2.700000000000003</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1064.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年第三季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.1</v>
+        <v>101.2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.3</v>
+        <v>-11.1</v>
       </c>
       <c r="E15" t="n">
-        <v>4167.6</v>
+        <v>2683.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1619.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="D16" t="n">
-        <v>-11.1</v>
+        <v>-3.3</v>
       </c>
       <c r="E16" t="n">
-        <v>2683.8</v>
+        <v>4167.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1483.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -734,11 +834,17 @@
       <c r="E17" t="n">
         <v>6019.9</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1852.299999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -753,49 +859,67 @@
       <c r="E18" t="n">
         <v>1353.8</v>
       </c>
+      <c r="F18" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1353.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="n">
-        <v>46.1</v>
+        <v>21.7</v>
       </c>
       <c r="E19" t="n">
-        <v>4657.3</v>
+        <v>2849.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1495.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="D20" t="n">
-        <v>21.7</v>
+        <v>46.1</v>
       </c>
       <c r="E20" t="n">
-        <v>2849.6</v>
+        <v>4657.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1807.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -810,11 +934,17 @@
       <c r="E21" t="n">
         <v>6179.3</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1522</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -829,49 +959,67 @@
       <c r="E22" t="n">
         <v>1780.5</v>
       </c>
+      <c r="F22" t="n">
+        <v>2.199999999999989</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1780.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="D23" t="n">
-        <v>-16.8</v>
+        <v>1.7</v>
       </c>
       <c r="E23" t="n">
-        <v>4880.5</v>
+        <v>3971.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2191.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D24" t="n">
-        <v>1.7</v>
+        <v>-16.8</v>
       </c>
       <c r="E24" t="n">
-        <v>3971.7</v>
+        <v>4880.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>908.8000000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -886,11 +1034,17 @@
       <c r="E25" t="n">
         <v>7581.3</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2700.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -905,49 +1059,67 @@
       <c r="E26" t="n">
         <v>1782.4</v>
       </c>
+      <c r="F26" t="n">
+        <v>99</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1782.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.3</v>
+        <v>99.7</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D27" t="n">
-        <v>123.9</v>
+        <v>15.4</v>
       </c>
       <c r="E27" t="n">
-        <v>5836.2</v>
+        <v>3821.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2039.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.7</v>
+        <v>98.3</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2</v>
+        <v>-2.1</v>
       </c>
       <c r="D28" t="n">
-        <v>15.4</v>
+        <v>123.9</v>
       </c>
       <c r="E28" t="n">
-        <v>3821.5</v>
+        <v>5836.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2014.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -962,11 +1134,17 @@
       <c r="E29" t="n">
         <v>8201.799999999999</v>
       </c>
+      <c r="F29" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2365.599999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -981,49 +1159,67 @@
       <c r="E30" t="n">
         <v>2082.8</v>
       </c>
+      <c r="F30" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2082.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.5</v>
+        <v>103.4</v>
       </c>
       <c r="C31" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="n">
-        <v>-31</v>
+        <v>-41.8</v>
       </c>
       <c r="E31" t="n">
-        <v>5825</v>
+        <v>3570.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1487.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.4</v>
+        <v>101.5</v>
       </c>
       <c r="C32" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="n">
-        <v>-41.8</v>
+        <v>-31</v>
       </c>
       <c r="E32" t="n">
-        <v>3570.2</v>
+        <v>5825</v>
+      </c>
+      <c r="F32" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2254.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1038,11 +1234,17 @@
       <c r="E33" t="n">
         <v>8689.1</v>
       </c>
+      <c r="F33" t="n">
+        <v>101</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2864.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1057,49 +1259,67 @@
       <c r="E34" t="n">
         <v>1739</v>
       </c>
+      <c r="F34" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1739</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.7</v>
+        <v>-6.3</v>
       </c>
       <c r="D35" t="n">
-        <v>106.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>5911.9</v>
+        <v>3767.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.199999999999989</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2028.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.3</v>
+        <v>-4.7</v>
       </c>
       <c r="D36" t="n">
-        <v>86.59999999999999</v>
+        <v>106.8</v>
       </c>
       <c r="E36" t="n">
-        <v>3767.6</v>
+        <v>5911.9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2144.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1114,11 +1334,17 @@
       <c r="E37" t="n">
         <v>8802.1</v>
       </c>
+      <c r="F37" t="n">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2890.200000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1133,49 +1359,67 @@
       <c r="E38" t="n">
         <v>1406.5</v>
       </c>
+      <c r="F38" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1406.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C39" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D39" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>5639.9</v>
+        <v>3348.2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1941.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="E40" t="n">
-        <v>3348.2</v>
+        <v>5639.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2291.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1190,11 +1434,17 @@
       <c r="E41" t="n">
         <v>8408.5</v>
       </c>
+      <c r="F41" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2768.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1209,49 +1459,67 @@
       <c r="E42" t="n">
         <v>1918</v>
       </c>
+      <c r="F42" t="n">
+        <v>11.09999999999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1918</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="C43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.5</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>6499.6</v>
+        <v>4090.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2172.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="C44" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D44" t="n">
-        <v>-9.699999999999999</v>
+        <v>-4.5</v>
       </c>
       <c r="E44" t="n">
-        <v>4090.4</v>
+        <v>6499.6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2409.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1266,11 +1534,17 @@
       <c r="E45" t="n">
         <v>9130.799999999999</v>
       </c>
+      <c r="F45" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2631.199999999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1285,49 +1559,67 @@
       <c r="E46" t="n">
         <v>2099.3</v>
       </c>
+      <c r="F46" t="n">
+        <v>19.89999999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2099.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103.3</v>
+        <v>102.5</v>
       </c>
       <c r="C47" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="D47" t="n">
-        <v>-43.6</v>
+        <v>-20.6</v>
       </c>
       <c r="E47" t="n">
-        <v>6401.7</v>
+        <v>4025.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1925.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>102.5</v>
+        <v>103.3</v>
       </c>
       <c r="C48" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D48" t="n">
-        <v>-20.6</v>
+        <v>-43.6</v>
       </c>
       <c r="E48" t="n">
-        <v>4025.2</v>
+        <v>6401.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2376.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1342,11 +1634,17 @@
       <c r="E49" t="n">
         <v>8490.4</v>
       </c>
+      <c r="F49" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2088.7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1361,49 +1659,67 @@
       <c r="E50" t="n">
         <v>1830.2</v>
       </c>
+      <c r="F50" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1830.2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>83</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5</v>
+        <v>-3.3</v>
       </c>
       <c r="D51" t="n">
         <v>11.4</v>
       </c>
       <c r="E51" t="n">
-        <v>5641.1</v>
+        <v>3839</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2008.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="C52" t="n">
-        <v>-3.3</v>
+        <v>-11.5</v>
       </c>
       <c r="D52" t="n">
         <v>11.4</v>
       </c>
       <c r="E52" t="n">
-        <v>3839</v>
+        <v>5641.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>83</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1802.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1418,11 +1734,17 @@
       <c r="E53" t="n">
         <v>8752.5</v>
       </c>
+      <c r="F53" t="n">
+        <v>16.59999999999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3111.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1437,49 +1759,67 @@
       <c r="E54" t="n">
         <v>1242.5</v>
       </c>
+      <c r="F54" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1242.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.8</v>
+        <v>1.6</v>
       </c>
       <c r="D55" t="n">
-        <v>40.6</v>
+        <v>-19.4</v>
       </c>
       <c r="E55" t="n">
-        <v>4018.3</v>
+        <v>2708.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1466.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.4</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.6</v>
+        <v>-2.8</v>
       </c>
       <c r="D56" t="n">
-        <v>-19.4</v>
+        <v>40.6</v>
       </c>
       <c r="E56" t="n">
-        <v>2708.6</v>
+        <v>4018.3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1309.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1494,11 +1834,17 @@
       <c r="E57" t="n">
         <v>5338.1</v>
       </c>
+      <c r="F57" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1319.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1513,49 +1859,67 @@
       <c r="E58" t="n">
         <v>747.1</v>
       </c>
+      <c r="F58" t="n">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="G58" t="n">
+        <v>747.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="C59" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="D59" t="n">
-        <v>-36.4</v>
+        <v>-21.6</v>
       </c>
       <c r="E59" t="n">
-        <v>2384.3</v>
+        <v>1564.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="G59" t="n">
+        <v>817.4999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="D60" t="n">
-        <v>-21.6</v>
+        <v>-36.4</v>
       </c>
       <c r="E60" t="n">
-        <v>1564.6</v>
+        <v>2384.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G60" t="n">
+        <v>819.7000000000003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1570,11 +1934,17 @@
       <c r="E61" t="n">
         <v>3212.5</v>
       </c>
+      <c r="F61" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="G61" t="n">
+        <v>828.1999999999998</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1589,49 +1959,67 @@
       <c r="E62" t="n">
         <v>595.7</v>
       </c>
+      <c r="F62" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G62" t="n">
+        <v>595.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.7</v>
+        <v>-4.6</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>24.2</v>
       </c>
       <c r="E63" t="n">
-        <v>2127.2</v>
+        <v>1348.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>752.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>98.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>-4.6</v>
+        <v>-3.7</v>
       </c>
       <c r="D64" t="n">
-        <v>24.2</v>
+        <v>12.4</v>
       </c>
       <c r="E64" t="n">
-        <v>1348.4</v>
+        <v>2127.2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="G64" t="n">
+        <v>778.7999999999997</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1645,6 +2033,12 @@
       </c>
       <c r="E65" t="n">
         <v>2848</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="G65" t="n">
+        <v>720.8000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/照相机.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/照相机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>照相机销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>照相机产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>照相机销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,57 +471,39 @@
       <c r="E2" t="n">
         <v>1127.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>97</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1127.5</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年B</t>
+          <t>2000年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>-1.8</v>
+        <v>12.7</v>
       </c>
       <c r="E3" t="n">
-        <v>2738.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1611</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年C</t>
+          <t>2000年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>12.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E4" t="n">
-        <v>4417</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1678.5</v>
+        <v>2738.5</v>
       </c>
     </row>
     <row r="5">
@@ -550,12 +522,6 @@
       <c r="E5" t="n">
         <v>5503.6</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1086.6</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -573,57 +539,39 @@
       <c r="E6" t="n">
         <v>1333.9</v>
       </c>
-      <c r="F6" t="n">
-        <v>99</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1333.9</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年B</t>
+          <t>2001年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>87.7</v>
+        <v>18.7</v>
       </c>
       <c r="E7" t="n">
-        <v>2636.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1302.5</v>
+        <v>4077.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年C</t>
+          <t>2001年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>18.7</v>
+        <v>87.7</v>
       </c>
       <c r="E8" t="n">
-        <v>4077.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1441</v>
+        <v>2636.4</v>
       </c>
     </row>
     <row r="9">
@@ -642,12 +590,6 @@
       <c r="E9" t="n">
         <v>5393.7</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1316.3</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -665,17 +607,11 @@
       <c r="E10" t="n">
         <v>894.8</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>894.8</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2002年B</t>
+          <t>2002年C</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -683,22 +619,16 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>9.5</v>
+        <v>16.1</v>
       </c>
       <c r="E11" t="n">
-        <v>2087.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1192.7</v>
+        <v>3341.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2002年C</t>
+          <t>2002年B</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -706,16 +636,10 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>16.1</v>
+        <v>9.5</v>
       </c>
       <c r="E12" t="n">
-        <v>3341.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1254.4</v>
+        <v>2087.5</v>
       </c>
     </row>
     <row r="13">
@@ -734,12 +658,6 @@
       <c r="E13" t="n">
         <v>4784.4</v>
       </c>
-      <c r="F13" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1442.5</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -759,61 +677,43 @@
       <c r="E14" t="n">
         <v>1064.4</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1064.4</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2003年B</t>
+          <t>2003年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>-11.1</v>
+        <v>-3.3</v>
       </c>
       <c r="E15" t="n">
-        <v>2683.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1619.4</v>
+        <v>4167.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2003年C</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.1</v>
+        <v>101.2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.3</v>
+        <v>-11.1</v>
       </c>
       <c r="E16" t="n">
-        <v>4167.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1483.8</v>
+        <v>2683.8</v>
       </c>
     </row>
     <row r="17">
@@ -834,12 +734,6 @@
       <c r="E17" t="n">
         <v>6019.9</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1852.299999999999</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -859,61 +753,43 @@
       <c r="E18" t="n">
         <v>1353.8</v>
       </c>
-      <c r="F18" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1353.8</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="D19" t="n">
-        <v>21.7</v>
+        <v>46.1</v>
       </c>
       <c r="E19" t="n">
-        <v>2849.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1495.8</v>
+        <v>4657.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="n">
-        <v>46.1</v>
+        <v>21.7</v>
       </c>
       <c r="E20" t="n">
-        <v>4657.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1807.7</v>
+        <v>2849.6</v>
       </c>
     </row>
     <row r="21">
@@ -934,12 +810,6 @@
       <c r="E21" t="n">
         <v>6179.3</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1522</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -959,61 +829,43 @@
       <c r="E22" t="n">
         <v>1780.5</v>
       </c>
-      <c r="F22" t="n">
-        <v>2.199999999999989</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1780.5</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D23" t="n">
-        <v>1.7</v>
+        <v>-16.8</v>
       </c>
       <c r="E23" t="n">
-        <v>3971.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2191.2</v>
+        <v>4880.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-16.8</v>
+        <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>4880.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G24" t="n">
-        <v>908.8000000000002</v>
+        <v>3971.7</v>
       </c>
     </row>
     <row r="25">
@@ -1034,12 +886,6 @@
       <c r="E25" t="n">
         <v>7581.3</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2700.8</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1059,61 +905,43 @@
       <c r="E26" t="n">
         <v>1782.4</v>
       </c>
-      <c r="F26" t="n">
-        <v>99</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1782.4</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.7</v>
+        <v>98.3</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2</v>
+        <v>-2.1</v>
       </c>
       <c r="D27" t="n">
-        <v>15.4</v>
+        <v>123.9</v>
       </c>
       <c r="E27" t="n">
-        <v>3821.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2039.1</v>
+        <v>5836.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.3</v>
+        <v>99.7</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9</v>
+        <v>15.4</v>
       </c>
       <c r="E28" t="n">
-        <v>5836.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2014.7</v>
+        <v>3821.5</v>
       </c>
     </row>
     <row r="29">
@@ -1134,12 +962,6 @@
       <c r="E29" t="n">
         <v>8201.799999999999</v>
       </c>
-      <c r="F29" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2365.599999999999</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1159,61 +981,43 @@
       <c r="E30" t="n">
         <v>2082.8</v>
       </c>
-      <c r="F30" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2082.8</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.4</v>
+        <v>101.5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D31" t="n">
-        <v>-41.8</v>
+        <v>-31</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1487.4</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.5</v>
+        <v>103.4</v>
       </c>
       <c r="C32" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="n">
-        <v>-31</v>
+        <v>-41.8</v>
       </c>
       <c r="E32" t="n">
-        <v>5825</v>
-      </c>
-      <c r="F32" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2254.8</v>
+        <v>3570.2</v>
       </c>
     </row>
     <row r="33">
@@ -1234,12 +1038,6 @@
       <c r="E33" t="n">
         <v>8689.1</v>
       </c>
-      <c r="F33" t="n">
-        <v>101</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2864.1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1259,61 +1057,43 @@
       <c r="E34" t="n">
         <v>1739</v>
       </c>
-      <c r="F34" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1739</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.3</v>
+        <v>-4.7</v>
       </c>
       <c r="D35" t="n">
-        <v>86.59999999999999</v>
+        <v>106.8</v>
       </c>
       <c r="E35" t="n">
-        <v>3767.6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4.199999999999989</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2028.6</v>
+        <v>5911.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.7</v>
+        <v>-6.3</v>
       </c>
       <c r="D36" t="n">
-        <v>106.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>5911.9</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2144.3</v>
+        <v>3767.6</v>
       </c>
     </row>
     <row r="37">
@@ -1334,12 +1114,6 @@
       <c r="E37" t="n">
         <v>8802.1</v>
       </c>
-      <c r="F37" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2890.200000000001</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1359,61 +1133,43 @@
       <c r="E38" t="n">
         <v>1406.5</v>
       </c>
-      <c r="F38" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1406.5</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="E39" t="n">
-        <v>3348.2</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1941.7</v>
+        <v>5639.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C40" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D40" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>5639.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2291.7</v>
+        <v>3348.2</v>
       </c>
     </row>
     <row r="41">
@@ -1434,12 +1190,6 @@
       <c r="E41" t="n">
         <v>8408.5</v>
       </c>
-      <c r="F41" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2768.6</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1459,61 +1209,43 @@
       <c r="E42" t="n">
         <v>1918</v>
       </c>
-      <c r="F42" t="n">
-        <v>11.09999999999999</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1918</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="C43" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D43" t="n">
-        <v>-9.699999999999999</v>
+        <v>-4.5</v>
       </c>
       <c r="E43" t="n">
-        <v>4090.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2172.4</v>
+        <v>6499.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="C44" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.5</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>6499.6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2409.2</v>
+        <v>4090.4</v>
       </c>
     </row>
     <row r="45">
@@ -1534,12 +1266,6 @@
       <c r="E45" t="n">
         <v>9130.799999999999</v>
       </c>
-      <c r="F45" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2631.199999999999</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1559,61 +1285,43 @@
       <c r="E46" t="n">
         <v>2099.3</v>
       </c>
-      <c r="F46" t="n">
-        <v>19.89999999999999</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2099.3</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>102.5</v>
+        <v>103.3</v>
       </c>
       <c r="C47" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D47" t="n">
-        <v>-20.6</v>
+        <v>-43.6</v>
       </c>
       <c r="E47" t="n">
-        <v>4025.2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1925.9</v>
+        <v>6401.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>103.3</v>
+        <v>102.5</v>
       </c>
       <c r="C48" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="D48" t="n">
-        <v>-43.6</v>
+        <v>-20.6</v>
       </c>
       <c r="E48" t="n">
-        <v>6401.7</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2376.5</v>
+        <v>4025.2</v>
       </c>
     </row>
     <row r="49">
@@ -1634,12 +1342,6 @@
       <c r="E49" t="n">
         <v>8490.4</v>
       </c>
-      <c r="F49" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2088.7</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1659,61 +1361,43 @@
       <c r="E50" t="n">
         <v>1830.2</v>
       </c>
-      <c r="F50" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1830.2</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.3</v>
+        <v>-11.5</v>
       </c>
       <c r="D51" t="n">
         <v>11.4</v>
       </c>
       <c r="E51" t="n">
-        <v>3839</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.199999999999989</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2008.8</v>
+        <v>5641.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>83</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.5</v>
+        <v>-3.3</v>
       </c>
       <c r="D52" t="n">
         <v>11.4</v>
       </c>
       <c r="E52" t="n">
-        <v>5641.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>83</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1802.1</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="53">
@@ -1734,12 +1418,6 @@
       <c r="E53" t="n">
         <v>8752.5</v>
       </c>
-      <c r="F53" t="n">
-        <v>16.59999999999999</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3111.4</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1759,61 +1437,43 @@
       <c r="E54" t="n">
         <v>1242.5</v>
       </c>
-      <c r="F54" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1242.5</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100.4</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>1.6</v>
+        <v>-2.8</v>
       </c>
       <c r="D55" t="n">
-        <v>-19.4</v>
+        <v>40.6</v>
       </c>
       <c r="E55" t="n">
-        <v>2708.6</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1466.1</v>
+        <v>4018.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.8</v>
+        <v>1.6</v>
       </c>
       <c r="D56" t="n">
-        <v>40.6</v>
+        <v>-19.4</v>
       </c>
       <c r="E56" t="n">
-        <v>4018.3</v>
-      </c>
-      <c r="F56" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1309.7</v>
+        <v>2708.6</v>
       </c>
     </row>
     <row r="57">
@@ -1834,12 +1494,6 @@
       <c r="E57" t="n">
         <v>5338.1</v>
       </c>
-      <c r="F57" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1319.8</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1859,61 +1513,43 @@
       <c r="E58" t="n">
         <v>747.1</v>
       </c>
-      <c r="F58" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="G58" t="n">
-        <v>747.1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="D59" t="n">
-        <v>-21.6</v>
+        <v>-36.4</v>
       </c>
       <c r="E59" t="n">
-        <v>1564.6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="G59" t="n">
-        <v>817.4999999999999</v>
+        <v>2384.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="C60" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="D60" t="n">
-        <v>-36.4</v>
+        <v>-21.6</v>
       </c>
       <c r="E60" t="n">
-        <v>2384.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G60" t="n">
-        <v>819.7000000000003</v>
+        <v>1564.6</v>
       </c>
     </row>
     <row r="61">
@@ -1934,12 +1570,6 @@
       <c r="E61" t="n">
         <v>3212.5</v>
       </c>
-      <c r="F61" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="G61" t="n">
-        <v>828.1999999999998</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1959,61 +1589,43 @@
       <c r="E62" t="n">
         <v>595.7</v>
       </c>
-      <c r="F62" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G62" t="n">
-        <v>595.7</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>98.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.6</v>
+        <v>-3.7</v>
       </c>
       <c r="D63" t="n">
-        <v>24.2</v>
+        <v>12.4</v>
       </c>
       <c r="E63" t="n">
-        <v>1348.4</v>
-      </c>
-      <c r="F63" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>752.7</v>
+        <v>2127.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C64" t="n">
-        <v>-3.7</v>
+        <v>-4.6</v>
       </c>
       <c r="D64" t="n">
-        <v>12.4</v>
+        <v>24.2</v>
       </c>
       <c r="E64" t="n">
-        <v>2127.2</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="G64" t="n">
-        <v>778.7999999999997</v>
+        <v>1348.4</v>
       </c>
     </row>
     <row r="65">
@@ -2033,12 +1645,6 @@
       </c>
       <c r="E65" t="n">
         <v>2848</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="G65" t="n">
-        <v>720.8000000000002</v>
       </c>
     </row>
   </sheetData>
